--- a/lab_2/documentation/схема.xlsx
+++ b/lab_2/documentation/схема.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikit\3D Objects\projects\petrsu\information_security\lab_2\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikit\3D Objects\petrsu_practice\information_security\lab_2\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAA545A-BE8D-4788-9BEC-130743DF30BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EB67E7-4C1F-4A59-84D8-4A1496C23270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16584" yWindow="5028" windowWidth="10224" windowHeight="12240" xr2:uid="{0E88D889-374C-40FA-A862-5CE124C63C11}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0E88D889-374C-40FA-A862-5CE124C63C11}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="55">
   <si>
     <t>i</t>
   </si>
@@ -91,9 +91,6 @@
     <t>заполняем_ключевые_ячейки_4</t>
   </si>
   <si>
-    <t>проверка_с_ошибкой</t>
-  </si>
-  <si>
     <t>s(t)</t>
   </si>
   <si>
@@ -109,32 +106,105 @@
     <t>b(r)</t>
   </si>
   <si>
-    <t>β1</t>
-  </si>
-  <si>
-    <t>β2</t>
-  </si>
-  <si>
-    <t>β3</t>
-  </si>
-  <si>
-    <t>β4</t>
-  </si>
-  <si>
-    <t>10 сс</t>
-  </si>
-  <si>
-    <t>вход</t>
-  </si>
-  <si>
-    <t>выход</t>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>β</t>
+  </si>
+  <si>
+    <t>век. кс. исх. пос-ти</t>
+  </si>
+  <si>
+    <t>век. кс. пер. пос-ти</t>
+  </si>
+  <si>
+    <t>век. кс. ошиб. пос-ти</t>
+  </si>
+  <si>
+    <t>101101010</t>
+  </si>
+  <si>
+    <t>0011011001010</t>
+  </si>
+  <si>
+    <t>чёт-0
+неч-1</t>
+  </si>
+  <si>
+    <t>заполн. проп-в. ч-з 1</t>
+  </si>
+  <si>
+    <t>заполн. проп-в. ч-з 2</t>
+  </si>
+  <si>
+    <t>заполн. проп-в. ч-з 4</t>
+  </si>
+  <si>
+    <t>заполн. проп-в. ч-з 8</t>
+  </si>
+  <si>
+    <t>к. бит. степени двойки</t>
+  </si>
+  <si>
+    <t>длина посл-и</t>
+  </si>
+  <si>
+    <t>исх. сообщение</t>
+  </si>
+  <si>
+    <t>перед-й вектор</t>
+  </si>
+  <si>
+    <t>полн. защ-й с ошиб.</t>
+  </si>
+  <si>
+    <t>0101000</t>
+  </si>
+  <si>
+    <t>011110</t>
+  </si>
+  <si>
+    <t>001110</t>
+  </si>
+  <si>
+    <t>001010</t>
+  </si>
+  <si>
+    <t>0111000</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>101110</t>
+  </si>
+  <si>
+    <t>111110</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Исходная последовательность</t>
+  </si>
+  <si>
+    <t>Преобразованная последовательность</t>
+  </si>
+  <si>
+    <t>ошибка = 1 + 4 = 5 ячейка</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,8 +228,24 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,8 +276,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -297,51 +389,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -365,46 +412,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -445,56 +457,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -817,27 +847,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63993611-0F8E-49EC-B5E1-79ED3D35A3AB}">
-  <dimension ref="B2:S46"/>
+  <dimension ref="B1:Y49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D26" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="131" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="18" width="3.77734375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.88671875" style="24" customWidth="1"/>
+    <col min="21" max="21" width="2.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.21875" style="25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="2.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.21875" style="25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -881,27 +918,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -933,22 +970,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:15" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:15" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:15" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:15" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:15" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
@@ -980,7 +1020,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:15" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1012,7 +1052,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:25" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:25" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
@@ -1057,7 +1098,7 @@
       </c>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:25" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>10</v>
       </c>
@@ -1102,7 +1143,7 @@
       </c>
       <c r="R19" s="6"/>
     </row>
-    <row r="20" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:25" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
@@ -1134,7 +1175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:25" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
@@ -1164,7 +1205,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:25" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
@@ -1194,7 +1235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:25" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
@@ -1224,51 +1265,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1">
-        <v>1</v>
-      </c>
-      <c r="I25" s="1">
-        <v>1</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0</v>
-      </c>
-      <c r="L25" s="1">
-        <v>1</v>
-      </c>
-      <c r="M25" s="1">
-        <v>0</v>
-      </c>
-      <c r="N25" s="1">
-        <v>1</v>
-      </c>
-      <c r="O25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+    </row>
+    <row r="26" spans="2:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+    </row>
+    <row r="27" spans="2:25" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+    </row>
+    <row r="28" spans="2:25" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
         <v>0</v>
       </c>
@@ -1311,20 +1363,21 @@
       <c r="O30" s="10">
         <v>9</v>
       </c>
-      <c r="P30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q30" s="11" t="s">
+      <c r="P30" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S30" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="2:19" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S30" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="T30" s="25"/>
+    </row>
+    <row r="31" spans="2:25" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="2" t="s">
         <v>1</v>
       </c>
@@ -1364,67 +1417,96 @@
       <c r="N31" s="12">
         <v>12</v>
       </c>
-      <c r="O31" s="25">
+      <c r="O31" s="17">
         <v>13</v>
       </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-    </row>
-    <row r="32" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S31" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="T31" s="25"/>
+    </row>
+    <row r="32" spans="2:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="22">
+      <c r="C32" s="16">
         <v>1</v>
       </c>
       <c r="D32" s="13">
         <v>0</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="15">
         <v>1</v>
       </c>
       <c r="F32" s="13">
         <v>0</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G32" s="15">
         <v>1</v>
       </c>
       <c r="H32" s="13">
         <v>0</v>
       </c>
-      <c r="I32" s="21">
+      <c r="I32" s="15">
         <v>1</v>
       </c>
       <c r="J32" s="13">
         <v>0</v>
       </c>
-      <c r="K32" s="21">
+      <c r="K32" s="15">
         <v>1</v>
       </c>
       <c r="L32" s="13">
         <v>0</v>
       </c>
-      <c r="M32" s="21">
+      <c r="M32" s="15">
         <v>1</v>
       </c>
       <c r="N32" s="13">
         <v>0</v>
       </c>
-      <c r="O32" s="26">
-        <v>1</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-    </row>
-    <row r="33" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="10" t="s">
+      <c r="O32" s="18">
+        <v>1</v>
+      </c>
+      <c r="P32" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="7">
+        <v>0</v>
+      </c>
+      <c r="R32" s="7">
+        <v>1</v>
+      </c>
+      <c r="S32" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="T32" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="U32" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="V32" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="W32" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="X32" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y32" s="34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="2">
         <v>0</v>
       </c>
       <c r="D33" s="9">
@@ -1460,19 +1542,45 @@
       <c r="N33" s="2">
         <v>0</v>
       </c>
-      <c r="O33" s="10">
-        <v>0</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-    </row>
-    <row r="34" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="10" t="s">
+      <c r="O33" s="2">
+        <v>0</v>
+      </c>
+      <c r="P33" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="7">
+        <v>0</v>
+      </c>
+      <c r="R33" s="7">
+        <v>0</v>
+      </c>
+      <c r="S33" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="T33" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="U33" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="W33" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="X33" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y33" s="34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="2">
         <v>0</v>
       </c>
       <c r="D34" s="2">
@@ -1508,374 +1616,429 @@
       <c r="N34" s="9">
         <v>1</v>
       </c>
-      <c r="O34" s="27">
-        <v>1</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-    </row>
-    <row r="35" spans="2:19" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="10" t="s">
+      <c r="O34" s="9">
+        <v>1</v>
+      </c>
+      <c r="P34" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="7">
+        <v>0</v>
+      </c>
+      <c r="R34" s="7">
+        <v>1</v>
+      </c>
+      <c r="S34" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="T34" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="U34" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="W34" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="X34" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y34" s="34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="15">
-        <v>0</v>
-      </c>
-      <c r="D35" s="16">
-        <v>0</v>
-      </c>
-      <c r="E35" s="16">
-        <v>0</v>
-      </c>
-      <c r="F35" s="16">
-        <v>0</v>
-      </c>
-      <c r="G35" s="16">
-        <v>0</v>
-      </c>
-      <c r="H35" s="16">
-        <v>0</v>
-      </c>
-      <c r="I35" s="16">
-        <v>0</v>
-      </c>
-      <c r="J35" s="23">
-        <v>1</v>
-      </c>
-      <c r="K35" s="23">
-        <v>1</v>
-      </c>
-      <c r="L35" s="23">
-        <v>1</v>
-      </c>
-      <c r="M35" s="23">
-        <v>1</v>
-      </c>
-      <c r="N35" s="23">
-        <v>1</v>
-      </c>
-      <c r="O35" s="28">
-        <v>1</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-    </row>
-    <row r="36" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="9">
+        <v>1</v>
+      </c>
+      <c r="K35" s="9">
+        <v>1</v>
+      </c>
+      <c r="L35" s="9">
+        <v>1</v>
+      </c>
+      <c r="M35" s="9">
+        <v>1</v>
+      </c>
+      <c r="N35" s="9">
+        <v>1</v>
+      </c>
+      <c r="O35" s="9">
+        <v>1</v>
+      </c>
+      <c r="P35" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>0</v>
+      </c>
+      <c r="R35" s="7">
+        <v>0</v>
+      </c>
+      <c r="S35" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="T35" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="U35" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="V35" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="W35" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="X35" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y35" s="34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="2:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="24">
-        <v>1</v>
-      </c>
-      <c r="F36" s="17" t="s">
+      <c r="E36" s="21">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G36" s="24">
-        <v>0</v>
-      </c>
-      <c r="H36" s="24">
-        <v>1</v>
-      </c>
-      <c r="I36" s="24">
-        <v>1</v>
-      </c>
-      <c r="J36" s="17" t="s">
+      <c r="G36" s="21">
+        <v>0</v>
+      </c>
+      <c r="H36" s="21">
+        <v>1</v>
+      </c>
+      <c r="I36" s="21">
+        <v>1</v>
+      </c>
+      <c r="J36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K36" s="24">
-        <v>0</v>
-      </c>
-      <c r="L36" s="24">
-        <v>1</v>
-      </c>
-      <c r="M36" s="24">
-        <v>0</v>
-      </c>
-      <c r="N36" s="24">
-        <v>1</v>
-      </c>
-      <c r="O36" s="29">
+      <c r="K36" s="21">
+        <v>0</v>
+      </c>
+      <c r="L36" s="21">
+        <v>1</v>
+      </c>
+      <c r="M36" s="21">
+        <v>0</v>
+      </c>
+      <c r="N36" s="21">
+        <v>1</v>
+      </c>
+      <c r="O36" s="21">
         <v>0</v>
       </c>
       <c r="P36" s="2"/>
-      <c r="Q36" s="11"/>
+      <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-    </row>
-    <row r="37" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="18" t="s">
+      <c r="S36" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="T36" s="25"/>
+    </row>
+    <row r="37" spans="2:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="7">
-        <v>1</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2">
-        <v>1</v>
-      </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2">
-        <v>0</v>
-      </c>
+      <c r="C37" s="2">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="27">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2"/>
       <c r="H37" s="2"/>
-      <c r="I37" s="2">
-        <v>1</v>
-      </c>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2">
-        <v>1</v>
-      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2"/>
       <c r="L37" s="2"/>
-      <c r="M37" s="2">
-        <v>1</v>
-      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
-      <c r="O37" s="10">
-        <v>0</v>
-      </c>
-      <c r="P37" s="2">
-        <v>46</v>
-      </c>
-      <c r="Q37" s="11"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-    </row>
-    <row r="38" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="18" t="s">
+      <c r="S37" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="T37" s="25"/>
+    </row>
+    <row r="38" spans="2:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+      <c r="F38" s="27">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2">
+        <v>1</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2">
+        <v>1</v>
+      </c>
+      <c r="M38" s="2">
+        <v>0</v>
+      </c>
+      <c r="N38" s="2">
+        <v>1</v>
+      </c>
+      <c r="O38" s="2">
+        <v>0</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="25"/>
+    </row>
+    <row r="39" spans="2:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="F39" s="27">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2">
+        <v>1</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2">
+        <v>1</v>
+      </c>
+      <c r="M39" s="2">
+        <v>0</v>
+      </c>
+      <c r="N39" s="2">
+        <v>1</v>
+      </c>
+      <c r="O39" s="2">
+        <v>0</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="T39" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="U39" s="35"/>
+      <c r="V39" s="35"/>
+      <c r="W39" s="35"/>
+      <c r="X39" s="35"/>
+      <c r="Y39" s="35"/>
+    </row>
+    <row r="40" spans="2:25" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="7">
-        <v>1</v>
-      </c>
-      <c r="E38" s="2">
-        <v>1</v>
-      </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2">
-        <v>1</v>
-      </c>
-      <c r="I38" s="2">
-        <v>1</v>
-      </c>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2">
-        <v>1</v>
-      </c>
-      <c r="M38" s="2">
-        <v>0</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="2">
-        <v>30</v>
-      </c>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-    </row>
-    <row r="39" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="18" t="s">
+      <c r="Q40" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="20">
-        <v>1</v>
-      </c>
-      <c r="G39" s="12">
-        <v>0</v>
-      </c>
-      <c r="H39" s="12">
-        <v>1</v>
-      </c>
-      <c r="I39" s="12">
-        <v>1</v>
-      </c>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12">
-        <v>1</v>
-      </c>
-      <c r="O39" s="25">
-        <v>0</v>
-      </c>
-      <c r="P39" s="2">
-        <v>14</v>
-      </c>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="12"/>
-      <c r="S39" s="12"/>
-    </row>
-    <row r="40" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="19" t="s">
+      <c r="R40" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="7">
-        <v>1</v>
-      </c>
-      <c r="K40" s="2">
-        <v>0</v>
-      </c>
-      <c r="L40" s="2">
-        <v>1</v>
-      </c>
-      <c r="M40" s="2">
-        <v>0</v>
-      </c>
-      <c r="N40" s="2">
-        <v>1</v>
-      </c>
-      <c r="O40" s="10">
-        <v>0</v>
-      </c>
-      <c r="P40" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q40" s="11"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-    </row>
-    <row r="41" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="2">
-        <v>1</v>
-      </c>
-      <c r="D41" s="2">
-        <v>1</v>
-      </c>
-      <c r="E41" s="2">
-        <v>1</v>
-      </c>
-      <c r="F41" s="2">
-        <v>1</v>
-      </c>
-      <c r="G41" s="2">
-        <v>0</v>
-      </c>
-      <c r="H41" s="2">
-        <v>1</v>
-      </c>
-      <c r="I41" s="2">
-        <v>1</v>
-      </c>
-      <c r="J41" s="2">
-        <v>1</v>
-      </c>
-      <c r="K41" s="2">
-        <v>0</v>
-      </c>
-      <c r="L41" s="2">
-        <v>1</v>
-      </c>
-      <c r="M41" s="2">
-        <v>0</v>
-      </c>
-      <c r="N41" s="2">
-        <v>1</v>
-      </c>
-      <c r="O41" s="10">
-        <v>0</v>
-      </c>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="11"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-    </row>
-    <row r="42" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="10" t="s">
+      <c r="S40" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C42" s="2">
-        <v>1</v>
-      </c>
-      <c r="D42" s="2">
-        <v>1</v>
-      </c>
-      <c r="E42" s="2">
-        <v>1</v>
-      </c>
-      <c r="F42" s="2">
-        <v>1</v>
-      </c>
-      <c r="G42" s="3">
-        <v>1</v>
-      </c>
-      <c r="H42" s="2">
-        <v>1</v>
-      </c>
-      <c r="I42" s="2">
-        <v>1</v>
-      </c>
-      <c r="J42" s="2">
-        <v>1</v>
-      </c>
-      <c r="K42" s="2">
-        <v>0</v>
-      </c>
-      <c r="L42" s="2">
-        <v>1</v>
-      </c>
-      <c r="M42" s="2">
-        <v>0</v>
-      </c>
-      <c r="N42" s="2">
-        <v>1</v>
-      </c>
-      <c r="O42" s="10">
-        <v>0</v>
-      </c>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-    </row>
-    <row r="44" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" s="1">
-        <v>101101010</v>
-      </c>
-    </row>
-    <row r="45" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="1" t="s">
+      <c r="T40" s="25"/>
+    </row>
+    <row r="41" spans="2:25" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="1">
-        <v>1111011101010</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="1">
-        <v>101101010</v>
-      </c>
+      <c r="Q41" s="36"/>
+      <c r="R41" s="36"/>
+      <c r="T41" s="25"/>
+    </row>
+    <row r="42" spans="2:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="20"/>
+    </row>
+    <row r="43" spans="2:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
+    </row>
+    <row r="44" spans="2:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
+    </row>
+    <row r="48" spans="2:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T48" s="26"/>
+    </row>
+    <row r="49" spans="20:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T49" s="26"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B25:N25"/>
+    <mergeCell ref="B26:N26"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="T39:Y39"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
